--- a/data/stressor_response_demo.xlsx
+++ b/data/stressor_response_demo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEA1740-73F4-4F3E-822F-3E8511A92429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36004525-78BF-45BB-A75A-79C50C07A19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20052" yWindow="624" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -14230,7 +14230,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/stressor_response_demo.xlsx
+++ b/data/stressor_response_demo.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36004525-78BF-45BB-A75A-79C50C07A19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29C331B-DBBB-421F-BBF8-4FA3B6312076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -281,13 +281,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -299,6 +292,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -316,13 +315,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
@@ -362,20 +361,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14227,10 +14223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14246,7 +14242,7 @@
     <col min="10" max="10" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -14265,52 +14261,53 @@
       <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -14335,14 +14332,15 @@
       <c r="H3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -14365,14 +14363,15 @@
         <v>33</v>
       </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -14395,14 +14394,15 @@
         <v>33</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -14425,14 +14425,15 @@
         <v>33</v>
       </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -14455,12 +14456,13 @@
         <v>33</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="9" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -14483,12 +14485,13 @@
         <v>33</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="9" t="s">
+      <c r="I8" s="9"/>
+      <c r="J8" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -14511,12 +14514,13 @@
         <v>33</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="9" t="s">
+      <c r="I9" s="9"/>
+      <c r="J9" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -14539,12 +14543,13 @@
         <v>33</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="9" t="s">
+      <c r="I10" s="9"/>
+      <c r="J10" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -14567,12 +14572,13 @@
         <v>33</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="9" t="s">
+      <c r="I11" s="9"/>
+      <c r="J11" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -14595,12 +14601,13 @@
         <v>33</v>
       </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="9" t="s">
+      <c r="I12" s="9"/>
+      <c r="J12" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -14623,12 +14630,13 @@
         <v>33</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="9" t="s">
+      <c r="I13" s="9"/>
+      <c r="J13" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -14651,12 +14659,13 @@
         <v>33</v>
       </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="9" t="s">
+      <c r="I14" s="9"/>
+      <c r="J14" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -14679,42 +14688,44 @@
         <v>33</v>
       </c>
       <c r="H15" s="2"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="9" t="s">
+      <c r="I15" s="9"/>
+      <c r="J15" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="9" t="s">
+      <c r="I16" s="9"/>
+      <c r="J16" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
@@ -14739,12 +14750,13 @@
       <c r="H17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="9" t="s">
+      <c r="I17" s="9"/>
+      <c r="J17" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
@@ -14769,14 +14781,26 @@
       <c r="H18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="9" t="s">
+      <c r="I18" s="9"/>
+      <c r="J18" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
